--- a/notes/try_tp.xlsx
+++ b/notes/try_tp.xlsx
@@ -1,130 +1,445 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georg\Desktop\mul_doc\notes\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EB37FA1-12A1-43CA-BD64-88619E54E770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="22740" yWindow="8970" windowWidth="13875" windowHeight="11310" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Can we use the figures for tech" sheetId="1" r:id="rId4"/>
+    <sheet name="try_tp_dec" sheetId="1" r:id="rId1"/>
+    <sheet name="recreate_tp_june" sheetId="5" r:id="rId2"/>
+    <sheet name="premium_provision" sheetId="3" r:id="rId3"/>
+    <sheet name="cancellations_adjustment" sheetId="4" r:id="rId4"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <externalReferences>
+    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
+  </externalReferences>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="56">
   <si>
     <t>Description</t>
   </si>
   <si>
-    <t>Amount (£)</t>
-  </si>
-  <si>
-    <t>Subtotal (£)</t>
-  </si>
-  <si>
-    <t>Gross GAAP Technical Provisions (Starting Point)</t>
-  </si>
-  <si>
-    <t>Remove GAAP Unearned Premium Reserve (UPR)</t>
-  </si>
-  <si>
     <t>Add Solvency II Premium Provision</t>
   </si>
   <si>
-    <t>+26,378,000</t>
-  </si>
-  <si>
     <t>Remove Management Load (Prudence Margin)</t>
   </si>
   <si>
-    <t>Add Run-off Expense Provision</t>
-  </si>
-  <si>
-    <t>+5,052,000</t>
-  </si>
-  <si>
-    <t>Subtract Future Premiums Receivable</t>
-  </si>
-  <si>
     <t>Subtract Bound But Not Incepted (BBNI) Adj.</t>
   </si>
   <si>
     <t>Add Net ENIDs Loading</t>
   </si>
   <si>
-    <t>+652,000</t>
-  </si>
-  <si>
     <t>Add Cancellations Adjustment</t>
   </si>
   <si>
-    <t>+1,070,000</t>
-  </si>
-  <si>
     <t>Apply Discounting</t>
   </si>
   <si>
-    <t>Solvency II Best Estimate (TP_non-life)</t>
-  </si>
-  <si>
-    <t>£208,809,000</t>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Premium Provision = (Unearned Premium + BBNI Premium) × Unearned Ultimate Loss Ratio</t>
+  </si>
+  <si>
+    <t>- Unearned Premium (UPR): available on the GAAP balance sheet. Line item "Provision for unearned premiums", £34,236,000.</t>
+  </si>
+  <si>
+    <t>- Bound But Not Incepted (BBNI) Premium: The premium for policies that have been sold but have not yet started. This is a Solvency II concept and is not on the GAAP balance sheet. For Mulsanne, this amount is £837,109.</t>
+  </si>
+  <si>
+    <t>- Unearned Ultimate Loss Ratio (ULR): Actuarial assumption. The expected percentage of the unearned premium that will ultimately be paid out in claims. Not available on the balance sheet; it comes from a separate, detailed reserving analysis.</t>
+  </si>
+  <si>
+    <t>explicit, discretionary amount that management has added to the claims reserves</t>
+  </si>
+  <si>
+    <t>Add Run-off Expense Provision (summary 4.8.2)</t>
+  </si>
+  <si>
+    <t>don't have components to calculate it myself</t>
+  </si>
+  <si>
+    <t>Subtract Future Premiums Receivable (summary 4.13.1 waterfall)</t>
+  </si>
+  <si>
+    <t>3.4.4, SII Technical provisions for general insurers: "should be known as part of the credit control process"</t>
+  </si>
+  <si>
+    <t>BBNI Adj = GWP - BBNI</t>
+  </si>
+  <si>
+    <t>Risk Margin</t>
+  </si>
+  <si>
+    <t>Subtotal B</t>
+  </si>
+  <si>
+    <t>Subtotal C</t>
+  </si>
+  <si>
+    <t>From Waterfall</t>
+  </si>
+  <si>
+    <t>Gross GAAP Technical Provisions</t>
+  </si>
+  <si>
+    <t>Provision for unearned premiums, gross amount</t>
+  </si>
+  <si>
+    <t>Do I have it?</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Try and source</t>
+  </si>
+  <si>
+    <t>BS, slightly different</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>Component</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Unearned Premium</t>
+  </si>
+  <si>
+    <t>BBNI Premium</t>
+  </si>
+  <si>
+    <t>Unearned Ultimate Loss Ratio</t>
+  </si>
+  <si>
+    <t>Gross premium provision</t>
+  </si>
+  <si>
+    <t>Gross claims provision</t>
+  </si>
+  <si>
+    <t>Gross Management load</t>
+  </si>
+  <si>
+    <t>Amounts due from Intermediaries (Receivable offsetting Gross TPs)</t>
+  </si>
+  <si>
+    <t>R-O Expense provision</t>
+  </si>
+  <si>
+    <t>Cancellations Assumption on UPR</t>
+  </si>
+  <si>
+    <t>Net ENIDs</t>
+  </si>
+  <si>
+    <t>Discounting</t>
+  </si>
+  <si>
+    <t>What we need</t>
+  </si>
+  <si>
+    <t>pp</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Need Unearned Ultimate Loss Ratio</t>
+  </si>
+  <si>
+    <t>No projected ten-year period</t>
+  </si>
+  <si>
+    <t>UPR</t>
+  </si>
+  <si>
+    <t>NWP</t>
+  </si>
+  <si>
+    <t>Dev NWP</t>
+  </si>
+  <si>
+    <t>Cancellation</t>
+  </si>
+  <si>
+    <t>Rate</t>
+  </si>
+  <si>
+    <t>Adj</t>
+  </si>
+  <si>
+    <t>From version control</t>
+  </si>
+  <si>
+    <t>UPR does not seem right</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="&quot;£&quot;#,##0.00"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="16">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="PL GFSC old"/>
+      <sheetName val="BS GFSC old"/>
+      <sheetName val="Investments 2"/>
+      <sheetName val="PL"/>
+      <sheetName val="BS"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4">
+        <row r="117">
+          <cell r="C117">
+            <v>-34236.264390000004</v>
+          </cell>
+        </row>
+        <row r="127">
+          <cell r="C127">
+            <v>-246638.54426000002</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="PL"/>
+      <sheetName val="BS"/>
+      <sheetName val="Deferrals"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="63">
+          <cell r="C63">
+            <v>8709.5284900000006</v>
+          </cell>
+        </row>
+        <row r="121">
+          <cell r="C121">
+            <v>-29874.69773</v>
+          </cell>
+        </row>
+        <row r="123">
+          <cell r="C123">
+            <v>-208725.74883</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="S2 Balance Sheet Summary"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1">
+        <row r="27">
+          <cell r="E27">
+            <v>25309878.606367901</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="E32">
+            <v>933589.79950986418</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -314,154 +629,612 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="39.0"/>
-    <col customWidth="1" min="2" max="2" width="10.25"/>
-    <col customWidth="1" min="3" max="3" width="11.25"/>
+    <col min="1" max="1" width="57.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="3"/>
+    <col min="7" max="7" width="76.7109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="216.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="216.7109375" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="12.5703125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="7">
+        <f>-1*1000*[1]BS!$C$127</f>
+        <v>246638544.26000002</v>
+      </c>
+      <c r="C2" s="7">
+        <v>246014000</v>
+      </c>
+      <c r="D2" s="4">
+        <f>SUM(B2)</f>
+        <v>246638544.26000002</v>
+      </c>
+      <c r="E2" s="4">
+        <f>SUM(C2)</f>
+        <v>246014000</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="7">
+        <f>[1]BS!$C$117*1000</f>
+        <v>-34236264.390000001</v>
+      </c>
+      <c r="C3" s="7">
+        <v>-34273000</v>
+      </c>
+      <c r="D3" s="4">
+        <f>SUM(B2:B3)</f>
+        <v>212402279.87</v>
+      </c>
+      <c r="E3" s="4">
+        <f>SUM(C2:C3)</f>
+        <v>211741000</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B4" s="7">
+        <v>26378000</v>
+      </c>
+      <c r="C4" s="7">
+        <v>26378000</v>
+      </c>
+      <c r="D4" s="4">
+        <f>SUM(B2:B4)</f>
+        <v>238780279.87</v>
+      </c>
+      <c r="E4" s="4">
+        <f>SUM(C2:C4)</f>
+        <v>238119000</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="B5" s="7">
+        <v>-6000000</v>
+      </c>
+      <c r="C5" s="7">
+        <v>-6000000</v>
+      </c>
+      <c r="D5" s="4">
+        <f>SUM(B2:B5)</f>
+        <v>232780279.87</v>
+      </c>
+      <c r="E5" s="4">
+        <f>SUM(C2:C5)</f>
+        <v>232119000</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="7">
+        <v>5052000</v>
+      </c>
+      <c r="C6" s="7">
+        <v>5052000</v>
+      </c>
+      <c r="D6" s="4">
+        <f>SUM(B2:B6)</f>
+        <v>237832279.87</v>
+      </c>
+      <c r="E6" s="4">
+        <f>SUM(C2:C6)</f>
+        <v>237171000</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="7">
+        <v>-7639000</v>
+      </c>
+      <c r="C7" s="7">
+        <v>-7639000</v>
+      </c>
+      <c r="D7" s="4">
+        <f>SUM(B2:B7)</f>
+        <v>230193279.87</v>
+      </c>
+      <c r="E7" s="4">
+        <f>SUM(C2:C7)</f>
+        <v>229532000</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2">
-        <v>2.46304E8</v>
-      </c>
-      <c r="C2" s="2">
-        <v>2.46304E8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="B8" s="7">
+        <v>-154000</v>
+      </c>
+      <c r="C8" s="7">
+        <v>-154000</v>
+      </c>
+      <c r="D8" s="4">
+        <f>SUM(B2:B8)</f>
+        <v>230039279.87</v>
+      </c>
+      <c r="E8" s="4">
+        <f>SUM(C2:C8)</f>
+        <v>229378000</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2">
-        <v>-3.4271E7</v>
-      </c>
-      <c r="C3" s="2">
-        <v>2.12033E8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="B9" s="7">
+        <v>652000</v>
+      </c>
+      <c r="C9" s="7">
+        <v>652000</v>
+      </c>
+      <c r="D9" s="4">
+        <f>SUM(B2:B9)</f>
+        <v>230691279.87</v>
+      </c>
+      <c r="E9" s="4">
+        <f>SUM(C2:C9)</f>
+        <v>230030000</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B10" s="7">
+        <v>1070000</v>
+      </c>
+      <c r="C10" s="7">
+        <v>1070000</v>
+      </c>
+      <c r="D10" s="4">
+        <f>SUM(B2:B10)</f>
+        <v>231761279.87</v>
+      </c>
+      <c r="E10" s="4">
+        <f>SUM(C2:C10)</f>
+        <v>231100000</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2">
-        <v>2.38411E8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="2">
-        <v>-6000000.0</v>
-      </c>
-      <c r="C5" s="2">
-        <v>2.32411E8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="2">
-        <v>2.37463E8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="2">
-        <v>-7639000.0</v>
-      </c>
-      <c r="C7" s="2">
-        <v>2.29824E8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="2">
-        <v>-154000.0</v>
-      </c>
-      <c r="C8" s="2">
-        <v>2.2967E8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="2">
-        <v>2.30322E8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="2">
-        <v>2.31392E8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="2">
-        <v>-2.2583E7</v>
-      </c>
-      <c r="C11" s="2">
-        <v>2.08809E8</v>
-      </c>
-    </row>
-    <row r="12">
+      <c r="B11" s="7">
+        <v>-22383000</v>
+      </c>
+      <c r="C11" s="7">
+        <v>-22383000</v>
+      </c>
+      <c r="D11" s="4">
+        <f>SUM(B2:B11)</f>
+        <v>209378279.87</v>
+      </c>
+      <c r="E11" s="4">
+        <f>SUM(C2:C11)</f>
+        <v>208717000</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="B12" s="7">
+        <v>1831000</v>
+      </c>
+      <c r="C12" s="7">
+        <v>1831000</v>
+      </c>
+      <c r="D12" s="4">
+        <f>SUM(B2:B12)</f>
+        <v>211209279.87</v>
+      </c>
+      <c r="E12" s="4">
+        <f>SUM(C2:C12)</f>
+        <v>210548000</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2AD15D8-9648-401F-8351-D8B69F79ED89}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="66.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="14">
+        <f>premium_provision!B6</f>
+        <v>25309878.606367901</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="11">
+        <f>-1*1000*[2]BS!$C$123</f>
+        <v>208725748.82999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="11">
+        <v>-6000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="11">
+        <f>[2]BS!$C$63</f>
+        <v>8709.5284900000006</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83A8B9A3-CB8D-4DB6-ADA0-E350DBF4F20D}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="9">
+        <f>'[3]S2 Balance Sheet Summary'!$E$27</f>
+        <v>25309878.606367901</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3">
+        <f>1000*[2]BS!$C$121</f>
+        <v>-29874697.73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5">
+        <f>B2/B3*-1</f>
+        <v>0.84720116116695854</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6">
+        <f>B3*B5*-1</f>
+        <v>25309878.606367901</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93EF476E-28DC-4902-BD69-ABF08967E2D3}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="11">
+        <f>'[3]S2 Balance Sheet Summary'!$E$32</f>
+        <v>933589.79950986418</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="11">
+        <f>'[3]S2 Balance Sheet Summary'!$E$32</f>
+        <v>933589.79950986418</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="11">
+        <v>29911446.990000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/notes/try_tp.xlsx
+++ b/notes/try_tp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georg\Desktop\mul_doc\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EB37FA1-12A1-43CA-BD64-88619E54E770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{675CA030-E689-4636-B7B1-E5A4DCE96001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22740" yWindow="8970" windowWidth="13875" windowHeight="11310" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18855" yWindow="2280" windowWidth="12330" windowHeight="16920" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="try_tp_dec" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="57">
   <si>
     <t>Description</t>
   </si>
@@ -208,7 +208,10 @@
     <t>From version control</t>
   </si>
   <si>
-    <t>UPR does not seem right</t>
+    <t>UPR does not seem right; NWP might be wrong</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
@@ -216,7 +219,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="&quot;£&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;£&quot;#,##0.00"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -311,16 +314,16 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -385,7 +388,18 @@
       <sheetName val="Deferrals"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0">
+        <row r="17">
+          <cell r="H17">
+            <v>3291.1138200000023</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="H20">
+            <v>4361.5666600000004</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="1">
         <row r="63">
           <cell r="C63">
@@ -403,7 +417,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1132,7 +1146,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1152,12 +1166,8 @@
       <c r="B1" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>31</v>
-      </c>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
@@ -1167,71 +1177,63 @@
         <f>'[3]S2 Balance Sheet Summary'!$E$32</f>
         <v>933589.79950986418</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="11">
-        <f>'[3]S2 Balance Sheet Summary'!$E$32</f>
-        <v>933589.79950986418</v>
-      </c>
+      <c r="D2" s="10"/>
     </row>
     <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="11">
+      <c r="B3" s="11">
+        <f>[2]PL!$H$20</f>
+        <v>4361.5666600000004</v>
+      </c>
+      <c r="C3" s="11">
         <v>29911446.990000002</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>49</v>
-      </c>
+      <c r="B4" s="11">
+        <f>1000*[2]PL!$H$17</f>
+        <v>3291113.8200000022</v>
+      </c>
+      <c r="D4" s="10"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>50</v>
-      </c>
+      <c r="B5" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="10"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>51</v>
-      </c>
+      <c r="D6" s="10"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>52</v>
-      </c>
+      <c r="D7" s="10"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>53</v>
-      </c>
+      <c r="D8" s="10"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
         <v>55</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>
